--- a/stock_historical_data/1wk/BEL.NS.xlsx
+++ b/stock_historical_data/1wk/BEL.NS.xlsx
@@ -64589,7 +64589,9 @@
       <c r="Q1145" t="n">
         <v>0</v>
       </c>
-      <c r="R1145" t="inlineStr"/>
+      <c r="R1145" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/BEL.NS.xlsx
+++ b/stock_historical_data/1wk/BEL.NS.xlsx
@@ -61205,7 +61205,9 @@
       <c r="P1146" t="n">
         <v>0</v>
       </c>
-      <c r="Q1146" t="inlineStr"/>
+      <c r="Q1146" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/BEL.NS.xlsx
+++ b/stock_historical_data/1wk/BEL.NS.xlsx
@@ -64701,7 +64701,9 @@
       <c r="Q1147" t="n">
         <v>0</v>
       </c>
-      <c r="R1147" t="inlineStr"/>
+      <c r="R1147" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/BEL.NS.xlsx
+++ b/stock_historical_data/1wk/BEL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1147"/>
+  <dimension ref="A1:R1148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64469,7 +64469,7 @@
         <v>20</v>
       </c>
       <c r="O1143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1143" t="n">
         <v>0</v>
@@ -64704,6 +64704,60 @@
       <c r="R1147" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B1148" t="n">
+        <v>313</v>
+      </c>
+      <c r="C1148" t="n">
+        <v>321</v>
+      </c>
+      <c r="D1148" t="n">
+        <v>312.25</v>
+      </c>
+      <c r="E1148" t="n">
+        <v>318.25</v>
+      </c>
+      <c r="F1148" t="n">
+        <v>318.25</v>
+      </c>
+      <c r="G1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1148" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1148" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1148" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1148" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1148" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/BEL.NS.xlsx
+++ b/stock_historical_data/1wk/BEL.NS.xlsx
@@ -64757,7 +64757,9 @@
       <c r="Q1148" t="n">
         <v>0</v>
       </c>
-      <c r="R1148" t="inlineStr"/>
+      <c r="R1148" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/BEL.NS.xlsx
+++ b/stock_historical_data/1wk/BEL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1148"/>
+  <dimension ref="A1:R1156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64761,6 +64761,438 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1149">
+      <c r="A1149" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1149" t="n">
+        <v>304.7999877929688</v>
+      </c>
+      <c r="C1149" t="n">
+        <v>314.9500122070312</v>
+      </c>
+      <c r="D1149" t="n">
+        <v>297.4500122070312</v>
+      </c>
+      <c r="E1149" t="n">
+        <v>305.8999938964844</v>
+      </c>
+      <c r="F1149" t="n">
+        <v>305.0736389160156</v>
+      </c>
+      <c r="G1149" t="n">
+        <v>156755208</v>
+      </c>
+      <c r="H1149" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1149" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1149" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1149" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1149" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1149" t="inlineStr"/>
+    </row>
+    <row r="1150">
+      <c r="A1150" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1150" t="n">
+        <v>310.9500122070312</v>
+      </c>
+      <c r="C1150" t="n">
+        <v>326.7999877929688</v>
+      </c>
+      <c r="D1150" t="n">
+        <v>303</v>
+      </c>
+      <c r="E1150" t="n">
+        <v>324.0499877929688</v>
+      </c>
+      <c r="F1150" t="n">
+        <v>323.1746215820312</v>
+      </c>
+      <c r="G1150" t="n">
+        <v>207106140</v>
+      </c>
+      <c r="H1150" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1150" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1150" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1150" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1150" t="inlineStr"/>
+    </row>
+    <row r="1151">
+      <c r="A1151" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1151" t="n">
+        <v>328.4500122070312</v>
+      </c>
+      <c r="C1151" t="n">
+        <v>340.5</v>
+      </c>
+      <c r="D1151" t="n">
+        <v>324.1499938964844</v>
+      </c>
+      <c r="E1151" t="n">
+        <v>333.1000061035156</v>
+      </c>
+      <c r="F1151" t="n">
+        <v>332.2001953125</v>
+      </c>
+      <c r="G1151" t="n">
+        <v>226426174</v>
+      </c>
+      <c r="H1151" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1151" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1151" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1151" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1151" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1151" t="inlineStr"/>
+    </row>
+    <row r="1152">
+      <c r="A1152" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1152" t="n">
+        <v>336</v>
+      </c>
+      <c r="C1152" t="n">
+        <v>336.0499877929688</v>
+      </c>
+      <c r="D1152" t="n">
+        <v>305</v>
+      </c>
+      <c r="E1152" t="n">
+        <v>306.2999877929688</v>
+      </c>
+      <c r="F1152" t="n">
+        <v>305.4725646972656</v>
+      </c>
+      <c r="G1152" t="n">
+        <v>139964674</v>
+      </c>
+      <c r="H1152" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1152" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1152" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1152" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1152" t="inlineStr"/>
+    </row>
+    <row r="1153">
+      <c r="A1153" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1153" t="n">
+        <v>306</v>
+      </c>
+      <c r="C1153" t="n">
+        <v>317</v>
+      </c>
+      <c r="D1153" t="n">
+        <v>281.1000061035156</v>
+      </c>
+      <c r="E1153" t="n">
+        <v>309.8999938964844</v>
+      </c>
+      <c r="F1153" t="n">
+        <v>309.0628356933594</v>
+      </c>
+      <c r="G1153" t="n">
+        <v>192332671</v>
+      </c>
+      <c r="H1153" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1153" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1153" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1153" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1153" t="inlineStr"/>
+    </row>
+    <row r="1154">
+      <c r="A1154" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1154" t="n">
+        <v>312.7999877929688</v>
+      </c>
+      <c r="C1154" t="n">
+        <v>326.5499877929688</v>
+      </c>
+      <c r="D1154" t="n">
+        <v>301.7000122070312</v>
+      </c>
+      <c r="E1154" t="n">
+        <v>302.9500122070312</v>
+      </c>
+      <c r="F1154" t="n">
+        <v>302.1316528320312</v>
+      </c>
+      <c r="G1154" t="n">
+        <v>172509954</v>
+      </c>
+      <c r="H1154" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1154" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1154" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1154" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1154" t="inlineStr"/>
+    </row>
+    <row r="1155">
+      <c r="A1155" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1155" t="n">
+        <v>289.8500061035156</v>
+      </c>
+      <c r="C1155" t="n">
+        <v>305</v>
+      </c>
+      <c r="D1155" t="n">
+        <v>285</v>
+      </c>
+      <c r="E1155" t="n">
+        <v>302.2000122070312</v>
+      </c>
+      <c r="F1155" t="n">
+        <v>301.3836669921875</v>
+      </c>
+      <c r="G1155" t="n">
+        <v>149276701</v>
+      </c>
+      <c r="H1155" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1155" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1155" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1155" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1155" t="inlineStr"/>
+    </row>
+    <row r="1156">
+      <c r="A1156" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1156" t="n">
+        <v>299</v>
+      </c>
+      <c r="C1156" t="n">
+        <v>303.8999938964844</v>
+      </c>
+      <c r="D1156" t="n">
+        <v>290.6499938964844</v>
+      </c>
+      <c r="E1156" t="n">
+        <v>303.2999877929688</v>
+      </c>
+      <c r="F1156" t="n">
+        <v>303.2999877929688</v>
+      </c>
+      <c r="G1156" t="n">
+        <v>68080550</v>
+      </c>
+      <c r="H1156" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1156" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1156" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1156" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1156" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1wk/BEL.NS.xlsx
+++ b/stock_historical_data/1wk/BEL.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1156"/>
+  <dimension ref="A1:R1188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3827,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R60" t="n">
         <v>0</v>
@@ -4723,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R76" t="n">
         <v>0</v>
@@ -5003,7 +5003,7 @@
         <v>0</v>
       </c>
       <c r="Q81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R81" t="n">
         <v>0</v>
@@ -5339,7 +5339,7 @@
         <v>0</v>
       </c>
       <c r="Q87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R87" t="n">
         <v>0</v>
@@ -5563,7 +5563,7 @@
         <v>0</v>
       </c>
       <c r="Q91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R91" t="n">
         <v>0</v>
@@ -64813,7 +64813,9 @@
       <c r="Q1149" t="n">
         <v>1</v>
       </c>
-      <c r="R1149" t="inlineStr"/>
+      <c r="R1149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1150">
       <c r="A1150" s="2" t="n">
@@ -64867,7 +64869,9 @@
       <c r="Q1150" t="n">
         <v>0</v>
       </c>
-      <c r="R1150" t="inlineStr"/>
+      <c r="R1150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1151">
       <c r="A1151" s="2" t="n">
@@ -64921,7 +64925,9 @@
       <c r="Q1151" t="n">
         <v>0</v>
       </c>
-      <c r="R1151" t="inlineStr"/>
+      <c r="R1151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1152">
       <c r="A1152" s="2" t="n">
@@ -64975,7 +64981,9 @@
       <c r="Q1152" t="n">
         <v>0</v>
       </c>
-      <c r="R1152" t="inlineStr"/>
+      <c r="R1152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1153">
       <c r="A1153" s="2" t="n">
@@ -65021,7 +65029,7 @@
         <v>30</v>
       </c>
       <c r="O1153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1153" t="n">
         <v>0</v>
@@ -65029,7 +65037,9 @@
       <c r="Q1153" t="n">
         <v>0</v>
       </c>
-      <c r="R1153" t="inlineStr"/>
+      <c r="R1153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1154">
       <c r="A1154" s="2" t="n">
@@ -65083,7 +65093,9 @@
       <c r="Q1154" t="n">
         <v>0</v>
       </c>
-      <c r="R1154" t="inlineStr"/>
+      <c r="R1154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1155">
       <c r="A1155" s="2" t="n">
@@ -65137,7 +65149,9 @@
       <c r="Q1155" t="n">
         <v>0</v>
       </c>
-      <c r="R1155" t="inlineStr"/>
+      <c r="R1155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1156">
       <c r="A1156" s="2" t="n">
@@ -65191,7 +65205,1673 @@
       <c r="Q1156" t="n">
         <v>0</v>
       </c>
-      <c r="R1156" t="inlineStr"/>
+      <c r="R1156" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1157" t="n">
+        <v>303.1211421666545</v>
+      </c>
+      <c r="C1157" t="n">
+        <v>307.4969311409563</v>
+      </c>
+      <c r="D1157" t="n">
+        <v>296.1596983341573</v>
+      </c>
+      <c r="E1157" t="n">
+        <v>304.3145446777344</v>
+      </c>
+      <c r="F1157" t="inlineStr"/>
+      <c r="G1157" t="n">
+        <v>73245510</v>
+      </c>
+      <c r="H1157" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1157" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1157" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1157" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1157" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1157" t="inlineStr"/>
+    </row>
+    <row r="1158">
+      <c r="A1158" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1158" t="n">
+        <v>306.999676823685</v>
+      </c>
+      <c r="C1158" t="n">
+        <v>307.1985570038115</v>
+      </c>
+      <c r="D1158" t="n">
+        <v>290.4911043989042</v>
+      </c>
+      <c r="E1158" t="n">
+        <v>297.6514282226562</v>
+      </c>
+      <c r="F1158" t="inlineStr"/>
+      <c r="G1158" t="n">
+        <v>94030059</v>
+      </c>
+      <c r="H1158" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1158" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1158" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1158" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1158" t="inlineStr"/>
+    </row>
+    <row r="1159">
+      <c r="A1159" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1159" t="n">
+        <v>300.2868673658492</v>
+      </c>
+      <c r="C1159" t="n">
+        <v>300.2868673658492</v>
+      </c>
+      <c r="D1159" t="n">
+        <v>280.4964525613433</v>
+      </c>
+      <c r="E1159" t="n">
+        <v>282.0379333496094</v>
+      </c>
+      <c r="F1159" t="inlineStr"/>
+      <c r="G1159" t="n">
+        <v>100027401</v>
+      </c>
+      <c r="H1159" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1159" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1159" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1159" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1159" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1159" t="inlineStr"/>
+    </row>
+    <row r="1160">
+      <c r="A1160" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1160" t="n">
+        <v>280.4467428025566</v>
+      </c>
+      <c r="C1160" t="n">
+        <v>292.3806467516015</v>
+      </c>
+      <c r="D1160" t="n">
+        <v>274.2311678290957</v>
+      </c>
+      <c r="E1160" t="n">
+        <v>288.3529663085938</v>
+      </c>
+      <c r="F1160" t="inlineStr"/>
+      <c r="G1160" t="n">
+        <v>99235692</v>
+      </c>
+      <c r="H1160" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1160" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1160" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1160" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1160" t="inlineStr"/>
+    </row>
+    <row r="1161">
+      <c r="A1161" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1161" t="n">
+        <v>289.2977113891608</v>
+      </c>
+      <c r="C1161" t="n">
+        <v>290.5905691749848</v>
+      </c>
+      <c r="D1161" t="n">
+        <v>265.628814365925</v>
+      </c>
+      <c r="E1161" t="n">
+        <v>275.8223571777344</v>
+      </c>
+      <c r="F1161" t="inlineStr"/>
+      <c r="G1161" t="n">
+        <v>118643006</v>
+      </c>
+      <c r="H1161" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1161" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1161" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1161" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1161" t="inlineStr"/>
+    </row>
+    <row r="1162">
+      <c r="A1162" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1162" t="n">
+        <v>278.4577501333746</v>
+      </c>
+      <c r="C1162" t="n">
+        <v>293.3751296048055</v>
+      </c>
+      <c r="D1162" t="n">
+        <v>277.1151799110486</v>
+      </c>
+      <c r="E1162" t="n">
+        <v>291.8336791992188</v>
+      </c>
+      <c r="F1162" t="inlineStr"/>
+      <c r="G1162" t="n">
+        <v>290988321</v>
+      </c>
+      <c r="H1162" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1162" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1162" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1162" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1162" t="inlineStr"/>
+    </row>
+    <row r="1163">
+      <c r="A1163" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1163" t="n">
+        <v>291.833681828861</v>
+      </c>
+      <c r="C1163" t="n">
+        <v>292.9773415287454</v>
+      </c>
+      <c r="D1163" t="n">
+        <v>272.0432672721806</v>
+      </c>
+      <c r="E1163" t="n">
+        <v>275.6731872558594</v>
+      </c>
+      <c r="F1163" t="inlineStr"/>
+      <c r="G1163" t="n">
+        <v>91351409</v>
+      </c>
+      <c r="H1163" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1163" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1163" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1163" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1163" t="inlineStr"/>
+    </row>
+    <row r="1164">
+      <c r="A1164" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1164" t="n">
+        <v>275.8720743590266</v>
+      </c>
+      <c r="C1164" t="n">
+        <v>288.0048888825017</v>
+      </c>
+      <c r="D1164" t="n">
+        <v>263.5403796455115</v>
+      </c>
+      <c r="E1164" t="n">
+        <v>284.3252563476562</v>
+      </c>
+      <c r="F1164" t="inlineStr"/>
+      <c r="G1164" t="n">
+        <v>98712541</v>
+      </c>
+      <c r="H1164" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1164" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1164" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1164" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1164" t="inlineStr"/>
+    </row>
+    <row r="1165">
+      <c r="A1165" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1165" t="n">
+        <v>284.5241549599724</v>
+      </c>
+      <c r="C1165" t="n">
+        <v>289.4468719372989</v>
+      </c>
+      <c r="D1165" t="n">
+        <v>276.269853507402</v>
+      </c>
+      <c r="E1165" t="n">
+        <v>285.568359375</v>
+      </c>
+      <c r="F1165" t="inlineStr"/>
+      <c r="G1165" t="n">
+        <v>59714594</v>
+      </c>
+      <c r="H1165" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1165" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1165" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1165" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1165" t="inlineStr"/>
+    </row>
+    <row r="1166">
+      <c r="A1166" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1166" t="n">
+        <v>284.7230603701254</v>
+      </c>
+      <c r="C1166" t="n">
+        <v>285.8667505015725</v>
+      </c>
+      <c r="D1166" t="n">
+        <v>256.031989148804</v>
+      </c>
+      <c r="E1166" t="n">
+        <v>270.8499145507812</v>
+      </c>
+      <c r="F1166" t="inlineStr"/>
+      <c r="G1166" t="n">
+        <v>88245905</v>
+      </c>
+      <c r="H1166" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1166" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1166" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1166" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1166" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1166" t="inlineStr"/>
+    </row>
+    <row r="1167">
+      <c r="A1167" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1167" t="n">
+        <v>275.1759580287925</v>
+      </c>
+      <c r="C1167" t="n">
+        <v>293.126527107994</v>
+      </c>
+      <c r="D1167" t="n">
+        <v>265.9271639001705</v>
+      </c>
+      <c r="E1167" t="n">
+        <v>287.0601196289062</v>
+      </c>
+      <c r="F1167" t="inlineStr"/>
+      <c r="G1167" t="n">
+        <v>123524062</v>
+      </c>
+      <c r="H1167" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1167" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1167" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1167" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1167" t="inlineStr"/>
+    </row>
+    <row r="1168">
+      <c r="A1168" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1168" t="n">
+        <v>287.4081805763277</v>
+      </c>
+      <c r="C1168" t="n">
+        <v>302.8228061781722</v>
+      </c>
+      <c r="D1168" t="n">
+        <v>275.6234446108266</v>
+      </c>
+      <c r="E1168" t="n">
+        <v>296.1099853515625</v>
+      </c>
+      <c r="F1168" t="inlineStr"/>
+      <c r="G1168" t="n">
+        <v>134017019</v>
+      </c>
+      <c r="H1168" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1168" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1168" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1168" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1168" t="inlineStr"/>
+    </row>
+    <row r="1169">
+      <c r="A1169" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1169" t="n">
+        <v>295.8613565684753</v>
+      </c>
+      <c r="C1169" t="n">
+        <v>302.1266437442486</v>
+      </c>
+      <c r="D1169" t="n">
+        <v>273.9825335617309</v>
+      </c>
+      <c r="E1169" t="n">
+        <v>279.4025268554688</v>
+      </c>
+      <c r="F1169" t="inlineStr"/>
+      <c r="G1169" t="n">
+        <v>74991806</v>
+      </c>
+      <c r="H1169" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1169" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1169" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1169" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1169" t="inlineStr"/>
+    </row>
+    <row r="1170">
+      <c r="A1170" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1170" t="n">
+        <v>281.4412216897447</v>
+      </c>
+      <c r="C1170" t="n">
+        <v>285.1208540424439</v>
+      </c>
+      <c r="D1170" t="n">
+        <v>268.7614493344647</v>
+      </c>
+      <c r="E1170" t="n">
+        <v>279.3030700683594</v>
+      </c>
+      <c r="F1170" t="inlineStr"/>
+      <c r="G1170" t="n">
+        <v>54287915</v>
+      </c>
+      <c r="H1170" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1170" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1170" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1170" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1170" t="inlineStr"/>
+    </row>
+    <row r="1171">
+      <c r="A1171" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1171" t="n">
+        <v>288.4026723093801</v>
+      </c>
+      <c r="C1171" t="n">
+        <v>308.8892130329781</v>
+      </c>
+      <c r="D1171" t="n">
+        <v>286.3639759035394</v>
+      </c>
+      <c r="E1171" t="n">
+        <v>306.3035278320312</v>
+      </c>
+      <c r="F1171" t="inlineStr"/>
+      <c r="G1171" t="n">
+        <v>167192854</v>
+      </c>
+      <c r="H1171" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1171" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1171" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1171" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1171" t="inlineStr"/>
+    </row>
+    <row r="1172">
+      <c r="A1172" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1172" t="n">
+        <v>306.1046113194935</v>
+      </c>
+      <c r="C1172" t="n">
+        <v>319.0827495296519</v>
+      </c>
+      <c r="D1172" t="n">
+        <v>301.629397526229</v>
+      </c>
+      <c r="E1172" t="n">
+        <v>312.0218505859375</v>
+      </c>
+      <c r="F1172" t="inlineStr"/>
+      <c r="G1172" t="n">
+        <v>104667485</v>
+      </c>
+      <c r="H1172" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1172" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1172" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1172" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1172" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1172" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1172" t="inlineStr"/>
+    </row>
+    <row r="1173">
+      <c r="A1173" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1173" t="n">
+        <v>311.8726806018779</v>
+      </c>
+      <c r="C1173" t="n">
+        <v>316.5467745423788</v>
+      </c>
+      <c r="D1173" t="n">
+        <v>306.4526873517543</v>
+      </c>
+      <c r="E1173" t="n">
+        <v>313.911376953125</v>
+      </c>
+      <c r="F1173" t="inlineStr"/>
+      <c r="G1173" t="n">
+        <v>63457722</v>
+      </c>
+      <c r="H1173" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1173" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1173" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1173" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1173" t="inlineStr"/>
+    </row>
+    <row r="1174">
+      <c r="A1174" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1174" t="n">
+        <v>314.0605745846334</v>
+      </c>
+      <c r="C1174" t="n">
+        <v>316.8948829729752</v>
+      </c>
+      <c r="D1174" t="n">
+        <v>287.7562782950829</v>
+      </c>
+      <c r="E1174" t="n">
+        <v>289.2480163574219</v>
+      </c>
+      <c r="F1174" t="inlineStr"/>
+      <c r="G1174" t="n">
+        <v>73508287</v>
+      </c>
+      <c r="H1174" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1174" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1174" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1174" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1174" t="inlineStr"/>
+    </row>
+    <row r="1175">
+      <c r="A1175" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1175" t="n">
+        <v>292.3806472673574</v>
+      </c>
+      <c r="C1175" t="n">
+        <v>295.7122015289067</v>
+      </c>
+      <c r="D1175" t="n">
+        <v>286.4136952823093</v>
+      </c>
+      <c r="E1175" t="n">
+        <v>290.4413757324219</v>
+      </c>
+      <c r="F1175" t="inlineStr"/>
+      <c r="G1175" t="n">
+        <v>39554259</v>
+      </c>
+      <c r="H1175" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1175" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1175" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1175" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1175" t="inlineStr"/>
+    </row>
+    <row r="1176">
+      <c r="A1176" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1176" t="n">
+        <v>290.4413743825896</v>
+      </c>
+      <c r="C1176" t="n">
+        <v>296.1597033416846</v>
+      </c>
+      <c r="D1176" t="n">
+        <v>281.2920662577297</v>
+      </c>
+      <c r="E1176" t="n">
+        <v>290.3419494628906</v>
+      </c>
+      <c r="F1176" t="inlineStr"/>
+      <c r="G1176" t="n">
+        <v>70086401</v>
+      </c>
+      <c r="H1176" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1176" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1176" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1176" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1176" t="inlineStr"/>
+    </row>
+    <row r="1177">
+      <c r="A1177" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1177" t="n">
+        <v>290.9386140601881</v>
+      </c>
+      <c r="C1177" t="n">
+        <v>290.9386140601881</v>
+      </c>
+      <c r="D1177" t="n">
+        <v>268.5128322474631</v>
+      </c>
+      <c r="E1177" t="n">
+        <v>269.50732421875</v>
+      </c>
+      <c r="F1177" t="inlineStr"/>
+      <c r="G1177" t="n">
+        <v>64915023</v>
+      </c>
+      <c r="H1177" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1177" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1177" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1177" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1177" t="inlineStr"/>
+    </row>
+    <row r="1178">
+      <c r="A1178" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1178" t="n">
+        <v>263.5403847129374</v>
+      </c>
+      <c r="C1178" t="n">
+        <v>282.3362777791701</v>
+      </c>
+      <c r="D1178" t="n">
+        <v>256.8772760539849</v>
+      </c>
+      <c r="E1178" t="n">
+        <v>280.5959167480469</v>
+      </c>
+      <c r="F1178" t="inlineStr"/>
+      <c r="G1178" t="n">
+        <v>79719968</v>
+      </c>
+      <c r="H1178" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1178" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1178" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1178" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1178" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1178" t="inlineStr"/>
+    </row>
+    <row r="1179">
+      <c r="A1179" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1179" t="n">
+        <v>281.6401571194758</v>
+      </c>
+      <c r="C1179" t="n">
+        <v>286.2147962117301</v>
+      </c>
+      <c r="D1179" t="n">
+        <v>264.833217408541</v>
+      </c>
+      <c r="E1179" t="n">
+        <v>268.6620178222656</v>
+      </c>
+      <c r="F1179" t="inlineStr"/>
+      <c r="G1179" t="n">
+        <v>66920566</v>
+      </c>
+      <c r="H1179" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1179" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1179" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1179" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1179" t="inlineStr"/>
+    </row>
+    <row r="1180">
+      <c r="A1180" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1180" t="n">
+        <v>265.5293638026853</v>
+      </c>
+      <c r="C1180" t="n">
+        <v>297.9498090484912</v>
+      </c>
+      <c r="D1180" t="n">
+        <v>251.3081251783044</v>
+      </c>
+      <c r="E1180" t="n">
+        <v>280.2478332519531</v>
+      </c>
+      <c r="F1180" t="inlineStr"/>
+      <c r="G1180" t="n">
+        <v>215941690</v>
+      </c>
+      <c r="H1180" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1180" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1180" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1180" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1180" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1180" t="inlineStr"/>
+    </row>
+    <row r="1181">
+      <c r="A1181" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1181" t="n">
+        <v>276.3195985982509</v>
+      </c>
+      <c r="C1181" t="n">
+        <v>290.1927433029753</v>
+      </c>
+      <c r="D1181" t="n">
+        <v>261.8497222950283</v>
+      </c>
+      <c r="E1181" t="n">
+        <v>275.5239868164062</v>
+      </c>
+      <c r="F1181" t="inlineStr"/>
+      <c r="G1181" t="n">
+        <v>133157267</v>
+      </c>
+      <c r="H1181" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1181" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1181" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1181" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1181" t="inlineStr"/>
+    </row>
+    <row r="1182">
+      <c r="A1182" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1182" t="n">
+        <v>277.3638027773112</v>
+      </c>
+      <c r="C1182" t="n">
+        <v>280.6456444692395</v>
+      </c>
+      <c r="D1182" t="n">
+        <v>246.8329025078163</v>
+      </c>
+      <c r="E1182" t="n">
+        <v>248.9710693359375</v>
+      </c>
+      <c r="F1182" t="inlineStr"/>
+      <c r="G1182" t="n">
+        <v>117325261</v>
+      </c>
+      <c r="H1182" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1182" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1182" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1182" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1182" t="inlineStr"/>
+    </row>
+    <row r="1183">
+      <c r="A1183" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1183" t="n">
+        <v>247.5787804415884</v>
+      </c>
+      <c r="C1183" t="n">
+        <v>261.054150080703</v>
+      </c>
+      <c r="D1183" t="n">
+        <v>238.9267030738624</v>
+      </c>
+      <c r="E1183" t="n">
+        <v>254.6894073486328</v>
+      </c>
+      <c r="F1183" t="inlineStr"/>
+      <c r="G1183" t="n">
+        <v>103161405</v>
+      </c>
+      <c r="H1183" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1183" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1183" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1183" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1183" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1183" t="inlineStr"/>
+    </row>
+    <row r="1184">
+      <c r="A1184" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1184" t="n">
+        <v>249.6174830712643</v>
+      </c>
+      <c r="C1184" t="n">
+        <v>257.1258852628962</v>
+      </c>
+      <c r="D1184" t="n">
+        <v>242.1587933380592</v>
+      </c>
+      <c r="E1184" t="n">
+        <v>244.8936462402344</v>
+      </c>
+      <c r="F1184" t="inlineStr"/>
+      <c r="G1184" t="n">
+        <v>59022177</v>
+      </c>
+      <c r="H1184" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1184" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1184" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1184" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1184" t="inlineStr"/>
+    </row>
+    <row r="1185">
+      <c r="A1185" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1185" t="n">
+        <v>246.1367660532669</v>
+      </c>
+      <c r="C1185" t="n">
+        <v>279.4522475190626</v>
+      </c>
+      <c r="D1185" t="n">
+        <v>243.0140618303283</v>
+      </c>
+      <c r="E1185" t="n">
+        <v>275.4643249511719</v>
+      </c>
+      <c r="F1185" t="inlineStr"/>
+      <c r="G1185" t="n">
+        <v>126270879</v>
+      </c>
+      <c r="H1185" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1185" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1185" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1185" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1185" t="inlineStr"/>
+    </row>
+    <row r="1186">
+      <c r="A1186" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1186" t="n">
+        <v>277.0654698527345</v>
+      </c>
+      <c r="C1186" t="n">
+        <v>284.2257938513571</v>
+      </c>
+      <c r="D1186" t="n">
+        <v>267.568053297292</v>
+      </c>
+      <c r="E1186" t="n">
+        <v>278.5273742675781</v>
+      </c>
+      <c r="F1186" t="inlineStr"/>
+      <c r="G1186" t="n">
+        <v>95291208</v>
+      </c>
+      <c r="H1186" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1186" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1186" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1186" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1186" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1186" t="inlineStr"/>
+    </row>
+    <row r="1187">
+      <c r="A1187" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1187" t="n">
+        <v>281</v>
+      </c>
+      <c r="C1187" t="n">
+        <v>301</v>
+      </c>
+      <c r="D1187" t="n">
+        <v>276.7200012207031</v>
+      </c>
+      <c r="E1187" t="n">
+        <v>295.739990234375</v>
+      </c>
+      <c r="F1187" t="inlineStr"/>
+      <c r="G1187" t="n">
+        <v>104620362</v>
+      </c>
+      <c r="H1187" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1187" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1187" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1187" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1187" t="inlineStr"/>
+    </row>
+    <row r="1188">
+      <c r="A1188" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1188" t="n">
+        <v>296.8999938964844</v>
+      </c>
+      <c r="C1188" t="n">
+        <v>306.5799865722656</v>
+      </c>
+      <c r="D1188" t="n">
+        <v>296.3500061035156</v>
+      </c>
+      <c r="E1188" t="n">
+        <v>301.3200073242188</v>
+      </c>
+      <c r="F1188" t="inlineStr"/>
+      <c r="G1188" t="n">
+        <v>108474484</v>
+      </c>
+      <c r="H1188" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1188" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1188" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1188" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1188" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
